--- a/test/files/forex_deposit_convert_withdraw_same_day.xlsx
+++ b/test/files/forex_deposit_convert_withdraw_same_day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493C307C-08E5-9D49-A261-9EA1F17DB3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8FBA4F-50A0-E345-A470-7106A9809487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsu" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -83,9 +83,6 @@
     <t>sell_price</t>
   </si>
   <si>
-    <t>foreign_amount</t>
-  </si>
-  <si>
     <t>source_fees</t>
   </si>
   <si>
@@ -105,6 +102,15 @@
   </si>
   <si>
     <t>Sell everything after conversion</t>
+  </si>
+  <si>
+    <t>target_amount</t>
+  </si>
+  <si>
+    <t>source_amount</t>
+  </si>
+  <si>
+    <t>target_fees</t>
   </si>
 </sst>
 </file>
@@ -115,7 +121,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,6 +144,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,13 +172,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,50 +579,62 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>43476</v>
       </c>
       <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
         <v>144.74</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -621,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -630,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>9</v>
@@ -659,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -676,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">

--- a/test/files/forex_deposit_convert_withdraw_same_day.xlsx
+++ b/test/files/forex_deposit_convert_withdraw_same_day.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8FBA4F-50A0-E345-A470-7106A9809487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A906E2E6-7BD5-1E4B-AA37-F3AD96975DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="22">
   <si>
     <t>date</t>
   </si>
@@ -83,9 +83,6 @@
     <t>sell_price</t>
   </si>
   <si>
-    <t>source_fees</t>
-  </si>
-  <si>
     <t>source_currency</t>
   </si>
   <si>
@@ -110,7 +107,7 @@
     <t>source_amount</t>
   </si>
   <si>
-    <t>target_fees</t>
+    <t>fee_currency</t>
   </si>
 </sst>
 </file>
@@ -375,9 +372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -415,88 +410,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -514,13 +427,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -535,13 +448,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -556,18 +467,102 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -593,22 +588,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
@@ -621,20 +616,20 @@
       <c r="B2">
         <v>-1</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>144.74</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2">
-        <v>144.74</v>
-      </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -645,33 +640,39 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>43476</v>
       </c>
@@ -681,14 +682,17 @@
       <c r="C2">
         <v>125.5</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>43476</v>
       </c>
@@ -698,21 +702,24 @@
       <c r="C3">
         <v>-144.74</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
     </row>
